--- a/result/ws_fund_analysis.xlsx
+++ b/result/ws_fund_analysis.xlsx
@@ -5,19 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F81C4B9-B104-1A44-B1DA-A3815C05C42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E6A820-82A9-704F-83C9-3051516FC24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
     <sheet name="Regime_Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -218,8 +231,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -299,12 +312,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -663,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -690,7 +703,7 @@
     <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -746,7 +759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44075</v>
       </c>
@@ -792,8 +805,12 @@
       <c r="R2">
         <v>1.0008736792220549</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <f>IF(L2&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44105</v>
       </c>
@@ -839,8 +856,12 @@
       <c r="R3">
         <v>1.0030102220468979</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <f>IF(L3&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44136</v>
       </c>
@@ -886,8 +907,12 @@
       <c r="R4">
         <v>1.015773881227281</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <f>IF(L4&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44166</v>
       </c>
@@ -933,8 +958,12 @@
       <c r="R5">
         <v>1.0249104478797391</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <f>IF(L5&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44197</v>
       </c>
@@ -980,8 +1009,12 @@
       <c r="R6">
         <v>1.027420290008551</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <f>IF(L6&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44228</v>
       </c>
@@ -1027,8 +1060,12 @@
       <c r="R7">
         <v>1.0262050816360571</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <f>IF(L7&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44256</v>
       </c>
@@ -1077,8 +1114,12 @@
       <c r="R8">
         <v>1.022408548289309</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <f>IF(L8&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44287</v>
       </c>
@@ -1124,8 +1165,12 @@
       <c r="R9">
         <v>1.03079851633383</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <f>IF(L9&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44317</v>
       </c>
@@ -1171,8 +1216,12 @@
       <c r="R10">
         <v>1.0393023274284969</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <f>IF(L10&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44348</v>
       </c>
@@ -1218,8 +1267,12 @@
       <c r="R11">
         <v>1.045812561389202</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <f>IF(L11&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44378</v>
       </c>
@@ -1265,8 +1318,12 @@
       <c r="R12">
         <v>1.0491591615856479</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <f>IF(L12&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44409</v>
       </c>
@@ -1312,8 +1369,12 @@
       <c r="R13">
         <v>1.0565882144661449</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <f>IF(L13&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44440</v>
       </c>
@@ -1359,8 +1420,12 @@
       <c r="R14">
         <v>1.0645962925622121</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <f>IF(L14&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44470</v>
       </c>
@@ -1406,8 +1471,12 @@
       <c r="R15">
         <v>1.066819430660523</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <f>IF(L15&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44501</v>
       </c>
@@ -1453,8 +1522,12 @@
       <c r="R16">
         <v>1.068375892937238</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <f>IF(L16&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44531</v>
       </c>
@@ -1500,8 +1573,12 @@
       <c r="R17">
         <v>1.073714611667949</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <f>IF(L17&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44562</v>
       </c>
@@ -1547,8 +1624,12 @@
       <c r="R18">
         <v>1.0758872842658209</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <f>IF(L18&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44593</v>
       </c>
@@ -1594,8 +1675,12 @@
       <c r="R19">
         <v>1.0780971419692791</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <f>IF(L19&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44621</v>
       </c>
@@ -1641,8 +1726,12 @@
       <c r="R20">
         <v>1.083757246255421</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <f>IF(L20&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44652</v>
       </c>
@@ -1688,8 +1777,12 @@
       <c r="R21">
         <v>1.0878077666854391</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <f>IF(L21&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44682</v>
       </c>
@@ -1735,8 +1828,12 @@
       <c r="R22">
         <v>1.084227372233201</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <f>IF(L22&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44713</v>
       </c>
@@ -1782,8 +1879,12 @@
       <c r="R23">
         <v>1.0765061506659479</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <f>IF(L23&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44743</v>
       </c>
@@ -1829,8 +1930,12 @@
       <c r="R24">
         <v>1.07915426139954</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <f>IF(L24&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44774</v>
       </c>
@@ -1876,8 +1981,12 @@
       <c r="R25">
         <v>1.08818227382028</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <f>IF(L25&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44805</v>
       </c>
@@ -1923,8 +2032,12 @@
       <c r="R26">
         <v>1.096386901760164</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <f>IF(L26&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44835</v>
       </c>
@@ -1970,8 +2083,12 @@
       <c r="R27">
         <v>1.0952979093822579</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <f>IF(L27&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44866</v>
       </c>
@@ -2017,8 +2134,12 @@
       <c r="R28">
         <v>1.099130631336694</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <f>IF(L28&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44896</v>
       </c>
@@ -2064,8 +2185,12 @@
       <c r="R29">
         <v>1.1084879975497759</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29">
+        <f>IF(L29&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44927</v>
       </c>
@@ -2111,8 +2236,12 @@
       <c r="R30">
         <v>1.114541201523553</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30">
+        <f>IF(L30&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44958</v>
       </c>
@@ -2158,8 +2287,12 @@
       <c r="R31">
         <v>1.1202305226783711</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31">
+        <f>IF(L31&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44986</v>
       </c>
@@ -2205,8 +2338,12 @@
       <c r="R32">
         <v>1.123983562263692</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32">
+        <f>IF(L32&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45017</v>
       </c>
@@ -2252,8 +2389,12 @@
       <c r="R33">
         <v>1.1330753205797239</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33">
+        <f>IF(L33&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45047</v>
       </c>
@@ -2299,8 +2440,12 @@
       <c r="R34">
         <v>1.1438935302265829</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34">
+        <f>IF(L34&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45078</v>
       </c>
@@ -2346,8 +2491,12 @@
       <c r="R35">
         <v>1.1518591110591221</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35">
+        <f>IF(L35&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45108</v>
       </c>
@@ -2393,8 +2542,12 @@
       <c r="R36">
         <v>1.156746296364848</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36">
+        <f>IF(L36&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45139</v>
       </c>
@@ -2440,8 +2593,12 @@
       <c r="R37">
         <v>1.1627384105223031</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37">
+        <f>IF(L37&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45170</v>
       </c>
@@ -2487,8 +2644,12 @@
       <c r="R38">
         <v>1.169824829215605</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38">
+        <f>IF(L38&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45200</v>
       </c>
@@ -2534,8 +2695,12 @@
       <c r="R39">
         <v>1.175838192004824</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39">
+        <f>IF(L39&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45231</v>
       </c>
@@ -2581,8 +2746,12 @@
       <c r="R40">
         <v>1.180348214096739</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40">
+        <f>IF(L40&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45261</v>
       </c>
@@ -2628,8 +2797,12 @@
       <c r="R41">
         <v>1.18748244221151</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41">
+        <f>IF(L41&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45292</v>
       </c>
@@ -2675,8 +2848,12 @@
       <c r="R42">
         <v>1.1955064567814</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42">
+        <f>IF(L42&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45323</v>
       </c>
@@ -2722,8 +2899,12 @@
       <c r="R43">
         <v>1.2029673826095439</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43">
+        <f>IF(L43&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45352</v>
       </c>
@@ -2769,8 +2950,12 @@
       <c r="R44">
         <v>1.210781566940764</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44">
+        <f>IF(L44&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45383</v>
       </c>
@@ -2816,8 +3001,12 @@
       <c r="R45">
         <v>1.2195572518593061</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45">
+        <f>IF(L45&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45413</v>
       </c>
@@ -2863,8 +3052,12 @@
       <c r="R46">
         <v>1.2268745953704621</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <f>IF(L46&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45444</v>
       </c>
@@ -2910,8 +3103,12 @@
       <c r="R47">
         <v>1.2339904680236109</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47">
+        <f>IF(L47&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45474</v>
       </c>
@@ -2957,8 +3154,12 @@
       <c r="R48">
         <v>1.242505002252974</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48">
+        <f>IF(L48&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45505</v>
       </c>
@@ -3004,8 +3205,12 @@
       <c r="R49">
         <v>1.2510782867685191</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49">
+        <f>IF(L49&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45536</v>
       </c>
@@ -3051,8 +3256,12 @@
       <c r="R50">
         <v>1.259335403461191</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50">
+        <f>IF(L50&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45566</v>
       </c>
@@ -3098,8 +3307,12 @@
       <c r="R51">
         <v>1.266891415881958</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51">
+        <f>IF(L51&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45597</v>
       </c>
@@ -3145,8 +3358,12 @@
       <c r="R52">
         <v>1.2737326295277209</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52">
+        <f>IF(L52&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45627</v>
       </c>
@@ -3192,8 +3409,12 @@
       <c r="R53">
         <v>1.2811202787789819</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53">
+        <f>IF(L53&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45658</v>
       </c>
@@ -3239,8 +3460,12 @@
       <c r="R54">
         <v>1.287782104228633</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54">
+        <f>IF(L54&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45689</v>
       </c>
@@ -3286,8 +3511,12 @@
       <c r="R55">
         <v>1.295380018643582</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55">
+        <f>IF(L55&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45717</v>
       </c>
@@ -3333,8 +3562,12 @@
       <c r="R56">
         <v>1.302375070744257</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56">
+        <f>IF(L56&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45748</v>
       </c>
@@ -3380,8 +3613,12 @@
       <c r="R57">
         <v>1.31071027119702</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <f>IF(L57&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45778</v>
       </c>
@@ -3427,8 +3664,12 @@
       <c r="R58">
         <v>1.318967745905562</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58">
+        <f>IF(L58&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45809</v>
       </c>
@@ -3474,8 +3715,12 @@
       <c r="R59">
         <v>1.3262220685080419</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59">
+        <f>IF(L59&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45839</v>
       </c>
@@ -3521,8 +3766,12 @@
       <c r="R60">
         <v>1.332853178850582</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <f>IF(L60&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45870</v>
       </c>
@@ -3568,8 +3817,12 @@
       <c r="R61">
         <v>1.339517444744835</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61">
+        <f>IF(L61&gt;0,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45901</v>
       </c>
@@ -3614,6 +3867,16 @@
       </c>
       <c r="R62">
         <v>1.345545273246187</v>
+      </c>
+      <c r="S62">
+        <f>IF(L62&gt;0,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S63">
+        <f>SUM(S2:S62)/COUNT(S2:S62)</f>
+        <v>0.16393442622950818</v>
       </c>
     </row>
   </sheetData>
@@ -3626,7 +3889,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4043,7 +4306,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
